--- a/projec/backend/EstimateRequestSystem/EstimateRequestSystem/Templates/SingleQuote.xlsx
+++ b/projec/backend/EstimateRequestSystem/EstimateRequestSystem/Templates/SingleQuote.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simjimin/Desktop/projec/backend/EstimateRequestSystem/EstimateRequestSystem/Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minjun\Downloads\testtt\PWD\projec\backend\EstimateRequestSystem\EstimateRequestSystem\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B3A864-0C92-4647-AAD2-7B8A4F9410D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6597C253-CECC-4857-BF82-E9EF57720065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14480" yWindow="680" windowWidth="14160" windowHeight="16160" xr2:uid="{36D82955-D421-B64D-853D-1A3D479FBBDC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36D82955-D421-B64D-853D-1A3D479FBBDC}"/>
   </bookViews>
   <sheets>
-    <sheet name="단품견적서" sheetId="2" r:id="rId1"/>
+    <sheet name="단품견적서" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">단품견적서!$A$1:$O$64</definedName>
@@ -42,190 +42,190 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
   <si>
     <t>Smart Solution for Flow Control</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>:</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   Cancellation Charge (위약금)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   Effective Date (견적유효기간)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   Packing (포장)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   Painting (도장)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   Delivery Place (납품장소)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   Delivery (납기)  </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   Terms of Payment (지불방법)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   Attachment (첨부)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  ※ Other precautions</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>원</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>총 견적금액</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>※ VAT 별도</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> ■ NOTE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Check Valve</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Snap Acting Relay</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Lock-Up Valve</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Air-Operated Valve</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Volume Booster</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Air set</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Limit Switch</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Solenoid Valve</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>IP Positioner</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> ■ ACC'Y</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> ■ ACT</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> ■ Rating &amp; End Connection</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Trim</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Body</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> ■ Mat'l</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> ■ Enclose</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>총 가격</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> ■ MODEL</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Amount</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Unit Price</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Q'ty</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SIZE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SPEC</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ITEM   :</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>20●●년 ●●월 ●●일</t>
   </si>
   <si>
     <t xml:space="preserve">   DATE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   REFERENCE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   PROJECT</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   RECEIVER</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   CUSTOMER</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>HEAD OFFICE &amp; FACTORY</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -233,11 +233,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -443,7 +451,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,18 +461,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,317 +701,319 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="22" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="22" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="22" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="22" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="25" fillId="2" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="25" fillId="2" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="18" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="19" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="22" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="21" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="22" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="22" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="쉼표 [0] 2" xfId="2" xr:uid="{6A58236A-6512-D543-BA7E-94A6AD85784B}"/>
+    <cellStyle name="쉼표 [0] 3" xfId="4" xr:uid="{DA175685-BC60-4374-B03D-41CD94D15A69}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{ABFCB4DF-D68A-C745-8097-229B11C6DF2A}"/>
+    <cellStyle name="표준 3" xfId="3" xr:uid="{509DB338-207E-4FAB-A020-4C71D8CA14C0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1034,18 +1032,18 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>499187</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>125300</xdr:rowOff>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2446047" cy="430325"/>
+    <xdr:ext cx="2438400" cy="428625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
+        <xdr:cNvPr id="2" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE3E16A-F900-6B43-A5DE-CEB695D9A244}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{760623B1-B996-4FE8-83E5-F0768432A451}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1053,64 +1051,16 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
-        <a:srcRect l="26220" t="-3078" b="-1"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2785187" y="125300"/>
-          <a:ext cx="2446047" cy="430325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>78515</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>45297</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="996367" cy="511693"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EC74B13-2C64-C04F-A51F-3E4FF1164541}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect r="73929" b="2707"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="78515" y="45297"/>
-          <a:ext cx="996367" cy="511693"/>
+          <a:off x="795618" y="89647"/>
+          <a:ext cx="2438400" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1438,48 +1388,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4B64E0-69CB-A448-8615-93B2FE9268DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9429E7C7-2B38-4D01-835B-7EE837732C19}">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5703125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="1" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="1.42578125" style="1" customWidth="1"/>
-    <col min="7" max="10" width="3.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" customWidth="1"/>
-    <col min="12" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.5703125" style="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="1.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="1.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="1.44140625" style="1" customWidth="1"/>
+    <col min="7" max="10" width="3.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" style="1" customWidth="1"/>
+    <col min="12" max="13" width="10.109375" style="1" customWidth="1"/>
+    <col min="14" max="15" width="11.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="58" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:16" s="56" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="59"/>
-    </row>
-    <row r="2" spans="1:16" s="58" customFormat="1" ht="4.5" customHeight="1">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="57"/>
+    </row>
+    <row r="2" spans="1:16" s="56" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -1495,179 +1446,179 @@
       <c r="M2" s="37"/>
       <c r="N2" s="37"/>
       <c r="O2" s="36"/>
-      <c r="P2" s="59"/>
-    </row>
-    <row r="3" spans="1:16" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="P2" s="57"/>
+    </row>
+    <row r="3" spans="1:16" s="56" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="79">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="74">
         <v>54</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
       <c r="N3" s="28"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="59"/>
-    </row>
-    <row r="4" spans="1:16" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A4" s="62" t="s">
+      <c r="O3" s="61"/>
+      <c r="P3" s="57"/>
+    </row>
+    <row r="4" spans="1:16" s="56" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="79">
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="74">
         <v>55</v>
       </c>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="59"/>
-    </row>
-    <row r="5" spans="1:16" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A5" s="62" t="s">
+      <c r="O4" s="61"/>
+      <c r="P4" s="57"/>
+    </row>
+    <row r="5" spans="1:16" s="56" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="80">
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="75">
         <v>1</v>
       </c>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="59"/>
-    </row>
-    <row r="6" spans="1:16" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A6" s="62" t="s">
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="57"/>
+    </row>
+    <row r="6" spans="1:16" s="56" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="79">
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="74">
         <v>53</v>
       </c>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="59"/>
-    </row>
-    <row r="7" spans="1:16" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A7" s="62" t="s">
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="57"/>
+    </row>
+    <row r="7" spans="1:16" s="56" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="81" t="s">
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="59"/>
-    </row>
-    <row r="8" spans="1:16" s="20" customFormat="1" ht="6" customHeight="1">
-      <c r="A8" s="57"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="55"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="57"/>
+    </row>
+    <row r="8" spans="1:16" s="20" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="55"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="53"/>
       <c r="P8" s="21"/>
     </row>
-    <row r="9" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="82"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="84"/>
+    <row r="9" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="77"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="79"/>
       <c r="P9" s="21"/>
     </row>
-    <row r="10" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="82"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="84"/>
+    <row r="10" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="77"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="79"/>
       <c r="P10" s="21"/>
     </row>
-    <row r="11" spans="1:16" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A11" s="65" t="s">
+    <row r="11" spans="1:16" s="20" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="54">
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="28">
         <v>155</v>
       </c>
       <c r="E11" s="28"/>
@@ -1683,71 +1634,71 @@
       <c r="O11" s="27"/>
       <c r="P11" s="21"/>
     </row>
-    <row r="12" spans="1:16" s="20" customFormat="1" ht="6" customHeight="1">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="69"/>
+    <row r="12" spans="1:16" s="20" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="65"/>
       <c r="P12" s="21"/>
     </row>
-    <row r="13" spans="1:16" s="20" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A13" s="70" t="s">
+    <row r="13" spans="1:16" s="20" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="53" t="s">
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="M13" s="53" t="s">
+      <c r="M13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="52" t="s">
+      <c r="N13" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="O13" s="51" t="s">
+      <c r="O13" s="50" t="s">
         <v>34</v>
       </c>
       <c r="P13" s="21"/>
     </row>
-    <row r="14" spans="1:16" s="20" customFormat="1" ht="9" customHeight="1">
-      <c r="A14" s="73"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="75"/>
+    <row r="14" spans="1:16" s="20" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="68"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="70"/>
       <c r="P14" s="21"/>
     </row>
-    <row r="15" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="15" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>33</v>
       </c>
@@ -1763,11 +1714,11 @@
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
       <c r="M15" s="37"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="48"/>
       <c r="P15" s="21"/>
     </row>
-    <row r="16" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="16" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="46"/>
       <c r="B16" s="32" t="s">
         <v>16</v>
@@ -1781,21 +1732,21 @@
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
-      <c r="L16" s="94">
+      <c r="L16" s="91">
         <v>156</v>
       </c>
-      <c r="M16" s="94">
+      <c r="M16" s="91">
         <v>4</v>
       </c>
-      <c r="N16" s="95">
+      <c r="N16" s="92">
         <v>158</v>
       </c>
-      <c r="O16" s="96" t="s">
+      <c r="O16" s="93" t="s">
         <v>32</v>
       </c>
       <c r="P16" s="21"/>
     </row>
-    <row r="17" spans="1:16" s="20" customFormat="1" ht="6" customHeight="1">
+    <row r="17" spans="1:16" s="20" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="46"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -1807,13 +1758,13 @@
       <c r="I17" s="32"/>
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="97"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="94"/>
       <c r="P17" s="21"/>
     </row>
-    <row r="18" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="18" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
         <v>31</v>
       </c>
@@ -1827,15 +1778,15 @@
       <c r="I18" s="37"/>
       <c r="J18" s="37"/>
       <c r="K18" s="37"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="97"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="94"/>
       <c r="P18" s="21"/>
     </row>
-    <row r="19" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="19" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="46"/>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="47" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="32"/>
@@ -1847,13 +1798,13 @@
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="97"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="94"/>
       <c r="P19" s="21"/>
     </row>
-    <row r="20" spans="1:16" s="20" customFormat="1" ht="6" customHeight="1">
+    <row r="20" spans="1:16" s="20" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="46"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
@@ -1865,13 +1816,13 @@
       <c r="I20" s="32"/>
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="97"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="94"/>
       <c r="P20" s="21"/>
     </row>
-    <row r="21" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="21" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
         <v>30</v>
       </c>
@@ -1885,13 +1836,13 @@
       <c r="I21" s="37"/>
       <c r="J21" s="37"/>
       <c r="K21" s="37"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="97"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="94"/>
       <c r="P21" s="21"/>
     </row>
-    <row r="22" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="22" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="46"/>
       <c r="B22" s="32" t="s">
         <v>16</v>
@@ -1903,21 +1854,21 @@
       <c r="E22" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="72">
+      <c r="F22" s="95">
         <v>6</v>
       </c>
-      <c r="G22" s="72"/>
+      <c r="G22" s="95"/>
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="97"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="94"/>
       <c r="P22" s="21"/>
     </row>
-    <row r="23" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="23" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="46"/>
       <c r="B23" s="32" t="s">
         <v>16</v>
@@ -1929,21 +1880,21 @@
       <c r="E23" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="72">
+      <c r="F23" s="95">
         <v>7</v>
       </c>
-      <c r="G23" s="72"/>
+      <c r="G23" s="95"/>
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="97"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="94"/>
       <c r="P23" s="21"/>
     </row>
-    <row r="24" spans="1:16" s="20" customFormat="1" ht="6" customHeight="1">
+    <row r="24" spans="1:16" s="20" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="46"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -1955,13 +1906,13 @@
       <c r="I24" s="32"/>
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="97"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="94"/>
       <c r="P24" s="21"/>
     </row>
-    <row r="25" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="25" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
         <v>27</v>
       </c>
@@ -1975,35 +1926,35 @@
       <c r="I25" s="37"/>
       <c r="J25" s="37"/>
       <c r="K25" s="37"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="94"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="97"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="94"/>
       <c r="P25" s="21"/>
     </row>
-    <row r="26" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="26" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="46"/>
       <c r="B26" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="72">
+      <c r="C26" s="32">
         <v>157</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="97"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="94"/>
       <c r="P26" s="21"/>
     </row>
-    <row r="27" spans="1:16" s="20" customFormat="1" ht="6" customHeight="1">
+    <row r="27" spans="1:16" s="20" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -2015,13 +1966,13 @@
       <c r="I27" s="32"/>
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="94"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="97"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="91"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="94"/>
       <c r="P27" s="21"/>
     </row>
-    <row r="28" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="28" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>26</v>
       </c>
@@ -2035,35 +1986,35 @@
       <c r="I28" s="37"/>
       <c r="J28" s="37"/>
       <c r="K28" s="37"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="97"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="91"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="94"/>
       <c r="P28" s="21"/>
     </row>
-    <row r="29" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="29" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="46"/>
       <c r="B29" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="72">
+      <c r="C29" s="32">
         <v>159</v>
       </c>
-      <c r="D29" s="72"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
       <c r="K29" s="32"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="97"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="94"/>
       <c r="P29" s="21"/>
     </row>
-    <row r="30" spans="1:16" s="20" customFormat="1" ht="6" customHeight="1">
+    <row r="30" spans="1:16" s="20" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="46"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -2075,13 +2026,13 @@
       <c r="I30" s="32"/>
       <c r="J30" s="32"/>
       <c r="K30" s="32"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="94"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="97"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="94"/>
       <c r="P30" s="21"/>
     </row>
-    <row r="31" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="31" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
         <v>25</v>
       </c>
@@ -2095,13 +2046,13 @@
       <c r="I31" s="37"/>
       <c r="J31" s="37"/>
       <c r="K31" s="37"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="97"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="94"/>
       <c r="P31" s="21"/>
     </row>
-    <row r="32" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="32" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="46"/>
       <c r="B32" s="37" t="s">
         <v>16</v>
@@ -2119,13 +2070,13 @@
       <c r="I32" s="32"/>
       <c r="J32" s="32"/>
       <c r="K32" s="32"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="97"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="91"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="94"/>
       <c r="P32" s="21"/>
     </row>
-    <row r="33" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="33" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="46"/>
       <c r="B33" s="37" t="s">
         <v>16</v>
@@ -2143,13 +2094,13 @@
       <c r="I33" s="32"/>
       <c r="J33" s="32"/>
       <c r="K33" s="32"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="97"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="94"/>
       <c r="P33" s="21"/>
     </row>
-    <row r="34" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="34" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="46"/>
       <c r="B34" s="37" t="s">
         <v>16</v>
@@ -2167,13 +2118,13 @@
       <c r="I34" s="32"/>
       <c r="J34" s="32"/>
       <c r="K34" s="32"/>
-      <c r="L34" s="94"/>
-      <c r="M34" s="94"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="97"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="91"/>
+      <c r="N34" s="92"/>
+      <c r="O34" s="94"/>
       <c r="P34" s="21"/>
     </row>
-    <row r="35" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="35" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="46"/>
       <c r="B35" s="37" t="s">
         <v>16</v>
@@ -2191,13 +2142,13 @@
       <c r="I35" s="32"/>
       <c r="J35" s="32"/>
       <c r="K35" s="32"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="97"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="91"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="94"/>
       <c r="P35" s="21"/>
     </row>
-    <row r="36" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="36" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="46"/>
       <c r="B36" s="37" t="s">
         <v>16</v>
@@ -2215,13 +2166,13 @@
       <c r="I36" s="32"/>
       <c r="J36" s="32"/>
       <c r="K36" s="32"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="95"/>
-      <c r="O36" s="97"/>
+      <c r="L36" s="91"/>
+      <c r="M36" s="91"/>
+      <c r="N36" s="92"/>
+      <c r="O36" s="94"/>
       <c r="P36" s="21"/>
     </row>
-    <row r="37" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="37" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="46"/>
       <c r="B37" s="37" t="s">
         <v>16</v>
@@ -2239,13 +2190,13 @@
       <c r="I37" s="32"/>
       <c r="J37" s="32"/>
       <c r="K37" s="32"/>
-      <c r="L37" s="94"/>
-      <c r="M37" s="94"/>
-      <c r="N37" s="95"/>
-      <c r="O37" s="97"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="91"/>
+      <c r="N37" s="92"/>
+      <c r="O37" s="94"/>
       <c r="P37" s="21"/>
     </row>
-    <row r="38" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="38" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="46"/>
       <c r="B38" s="37" t="s">
         <v>16</v>
@@ -2263,13 +2214,13 @@
       <c r="I38" s="32"/>
       <c r="J38" s="32"/>
       <c r="K38" s="32"/>
-      <c r="L38" s="94"/>
-      <c r="M38" s="94"/>
-      <c r="N38" s="95"/>
-      <c r="O38" s="97"/>
+      <c r="L38" s="91"/>
+      <c r="M38" s="91"/>
+      <c r="N38" s="92"/>
+      <c r="O38" s="94"/>
       <c r="P38" s="21"/>
     </row>
-    <row r="39" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="39" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="46"/>
       <c r="B39" s="37" t="s">
         <v>16</v>
@@ -2287,13 +2238,13 @@
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
       <c r="K39" s="32"/>
-      <c r="L39" s="94"/>
-      <c r="M39" s="94"/>
-      <c r="N39" s="95"/>
-      <c r="O39" s="97"/>
+      <c r="L39" s="91"/>
+      <c r="M39" s="91"/>
+      <c r="N39" s="92"/>
+      <c r="O39" s="94"/>
       <c r="P39" s="21"/>
     </row>
-    <row r="40" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="40" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="46"/>
       <c r="B40" s="37" t="s">
         <v>16</v>
@@ -2311,13 +2262,13 @@
       <c r="I40" s="32"/>
       <c r="J40" s="32"/>
       <c r="K40" s="32"/>
-      <c r="L40" s="94"/>
-      <c r="M40" s="94"/>
-      <c r="N40" s="95"/>
-      <c r="O40" s="97"/>
+      <c r="L40" s="91"/>
+      <c r="M40" s="91"/>
+      <c r="N40" s="92"/>
+      <c r="O40" s="94"/>
       <c r="P40" s="21"/>
     </row>
-    <row r="41" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="41" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="45"/>
       <c r="B41" s="43"/>
       <c r="C41" s="44"/>
@@ -2335,25 +2286,25 @@
       <c r="O41" s="41"/>
       <c r="P41" s="21"/>
     </row>
-    <row r="42" spans="1:16" s="20" customFormat="1" ht="6" customHeight="1">
-      <c r="A42" s="85"/>
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="86"/>
-      <c r="L42" s="86"/>
-      <c r="M42" s="86"/>
-      <c r="N42" s="86"/>
-      <c r="O42" s="87"/>
+    <row r="42" spans="1:16" s="20" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="82"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83"/>
+      <c r="J42" s="83"/>
+      <c r="K42" s="83"/>
+      <c r="L42" s="83"/>
+      <c r="M42" s="83"/>
+      <c r="N42" s="83"/>
+      <c r="O42" s="84"/>
       <c r="P42" s="21"/>
     </row>
-    <row r="43" spans="1:16" s="20" customFormat="1" ht="4.5" customHeight="1">
+    <row r="43" spans="1:16" s="20" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
@@ -2371,7 +2322,7 @@
       <c r="O43" s="38"/>
       <c r="P43" s="21"/>
     </row>
-    <row r="44" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="44" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="34" t="s">
         <v>14</v>
       </c>
@@ -2391,7 +2342,7 @@
       <c r="O44" s="36"/>
       <c r="P44" s="21"/>
     </row>
-    <row r="45" spans="1:16" s="20" customFormat="1" ht="3" customHeight="1">
+    <row r="45" spans="1:16" s="20" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="34"/>
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
@@ -2409,7 +2360,7 @@
       <c r="O45" s="33"/>
       <c r="P45" s="21"/>
     </row>
-    <row r="46" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="46" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="34"/>
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
@@ -2427,7 +2378,7 @@
       <c r="O46" s="33"/>
       <c r="P46" s="21"/>
     </row>
-    <row r="47" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="47" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="29"/>
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
@@ -2445,7 +2396,7 @@
       <c r="O47" s="30"/>
       <c r="P47" s="21"/>
     </row>
-    <row r="48" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="48" spans="1:16" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="29"/>
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
@@ -2463,7 +2414,7 @@
       <c r="O48" s="27"/>
       <c r="P48" s="21"/>
     </row>
-    <row r="49" spans="1:16" s="20" customFormat="1" ht="30.75" customHeight="1">
+    <row r="49" spans="1:16" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="26"/>
       <c r="B49" s="25" t="s">
         <v>13</v>
@@ -2487,24 +2438,24 @@
       </c>
       <c r="P49" s="21"/>
     </row>
-    <row r="50" spans="1:16" s="7" customFormat="1" ht="9" customHeight="1">
-      <c r="A50" s="88"/>
-      <c r="B50" s="89"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="89"/>
-      <c r="I50" s="89"/>
-      <c r="J50" s="89"/>
-      <c r="K50" s="89"/>
-      <c r="L50" s="89"/>
-      <c r="M50" s="89"/>
-      <c r="N50" s="89"/>
-      <c r="O50" s="90"/>
-    </row>
-    <row r="51" spans="1:16" s="7" customFormat="1" ht="3.75" customHeight="1">
+    <row r="50" spans="1:16" s="7" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="85"/>
+      <c r="B50" s="86"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="86"/>
+      <c r="H50" s="86"/>
+      <c r="I50" s="86"/>
+      <c r="J50" s="86"/>
+      <c r="K50" s="86"/>
+      <c r="L50" s="86"/>
+      <c r="M50" s="86"/>
+      <c r="N50" s="86"/>
+      <c r="O50" s="87"/>
+    </row>
+    <row r="51" spans="1:16" s="7" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="19"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
@@ -2521,7 +2472,7 @@
       <c r="N51" s="18"/>
       <c r="O51" s="17"/>
     </row>
-    <row r="52" spans="1:16" s="13" customFormat="1" ht="16.5" customHeight="1">
+    <row r="52" spans="1:16" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
         <v>10</v>
       </c>
@@ -2539,7 +2490,7 @@
       <c r="M52" s="15"/>
       <c r="O52" s="14"/>
     </row>
-    <row r="53" spans="1:16" s="7" customFormat="1" ht="10.5" customHeight="1">
+    <row r="53" spans="1:16" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>9</v>
       </c>
@@ -2560,7 +2511,7 @@
       <c r="N53" s="9"/>
       <c r="O53" s="8"/>
     </row>
-    <row r="54" spans="1:16" s="7" customFormat="1" ht="10.5" customHeight="1">
+    <row r="54" spans="1:16" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>8</v>
       </c>
@@ -2581,7 +2532,7 @@
       <c r="N54" s="9"/>
       <c r="O54" s="8"/>
     </row>
-    <row r="55" spans="1:16" s="7" customFormat="1" ht="10.5" customHeight="1">
+    <row r="55" spans="1:16" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>7</v>
       </c>
@@ -2602,7 +2553,7 @@
       <c r="N55" s="9"/>
       <c r="O55" s="8"/>
     </row>
-    <row r="56" spans="1:16" s="7" customFormat="1" ht="10.5" customHeight="1">
+    <row r="56" spans="1:16" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>6</v>
       </c>
@@ -2623,7 +2574,7 @@
       <c r="N56" s="9"/>
       <c r="O56" s="8"/>
     </row>
-    <row r="57" spans="1:16" s="7" customFormat="1" ht="10.5" customHeight="1">
+    <row r="57" spans="1:16" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>5</v>
       </c>
@@ -2644,7 +2595,7 @@
       <c r="N57" s="9"/>
       <c r="O57" s="8"/>
     </row>
-    <row r="58" spans="1:16" s="7" customFormat="1" ht="10.5" customHeight="1">
+    <row r="58" spans="1:16" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>4</v>
       </c>
@@ -2665,7 +2616,7 @@
       <c r="N58" s="9"/>
       <c r="O58" s="8"/>
     </row>
-    <row r="59" spans="1:16" s="7" customFormat="1" ht="10.5" customHeight="1">
+    <row r="59" spans="1:16" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>3</v>
       </c>
@@ -2686,7 +2637,7 @@
       <c r="N59" s="9"/>
       <c r="O59" s="8"/>
     </row>
-    <row r="60" spans="1:16" s="7" customFormat="1" ht="10.5" customHeight="1">
+    <row r="60" spans="1:16" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>2</v>
       </c>
@@ -2707,7 +2658,7 @@
       <c r="N60" s="9"/>
       <c r="O60" s="8"/>
     </row>
-    <row r="61" spans="1:16" s="7" customFormat="1" ht="10.5" customHeight="1">
+    <row r="61" spans="1:16" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -2724,7 +2675,7 @@
       <c r="N61" s="9"/>
       <c r="O61" s="8"/>
     </row>
-    <row r="62" spans="1:16" s="3" customFormat="1" ht="3.75" customHeight="1">
+    <row r="62" spans="1:16" s="3" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2741,7 +2692,7 @@
       <c r="N62" s="5"/>
       <c r="O62" s="4"/>
     </row>
-    <row r="63" spans="1:16" s="3" customFormat="1" ht="6.75" customHeight="1">
+    <row r="63" spans="1:16" s="3" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2758,27 +2709,27 @@
       <c r="N63" s="5"/>
       <c r="O63" s="4"/>
     </row>
-    <row r="64" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A64" s="91" t="s">
+    <row r="64" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="92"/>
-      <c r="C64" s="92"/>
-      <c r="D64" s="92"/>
-      <c r="E64" s="92"/>
-      <c r="F64" s="92"/>
-      <c r="G64" s="92"/>
-      <c r="H64" s="92"/>
-      <c r="I64" s="92"/>
-      <c r="J64" s="92"/>
-      <c r="K64" s="92"/>
-      <c r="L64" s="92"/>
-      <c r="M64" s="92"/>
-      <c r="N64" s="92"/>
-      <c r="O64" s="93"/>
+      <c r="B64" s="89"/>
+      <c r="C64" s="89"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89"/>
+      <c r="G64" s="89"/>
+      <c r="H64" s="89"/>
+      <c r="I64" s="89"/>
+      <c r="J64" s="89"/>
+      <c r="K64" s="89"/>
+      <c r="L64" s="89"/>
+      <c r="M64" s="89"/>
+      <c r="N64" s="89"/>
+      <c r="O64" s="90"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="19">
     <mergeCell ref="A42:O42"/>
     <mergeCell ref="A50:O50"/>
     <mergeCell ref="A64:O64"/>
@@ -2786,24 +2737,20 @@
     <mergeCell ref="M16:M40"/>
     <mergeCell ref="N16:N40"/>
     <mergeCell ref="O16:O40"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="A9:O9"/>
-    <mergeCell ref="A10:O10"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A12:O12"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A14:O14"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="F3:M3"/>
     <mergeCell ref="F4:M4"/>
     <mergeCell ref="F5:M5"/>
     <mergeCell ref="F6:M6"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="A9:O9"/>
+    <mergeCell ref="A10:O10"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:O12"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A14:O14"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
